--- a/EVENTOS_GEA.xlsx
+++ b/EVENTOS_GEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C5D8F0-2988-4E2B-B70D-4CD9FE1D7054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ABE9E-9DDC-4767-851E-9C31B703B1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8145E164-4147-41CE-9159-390E084BB9C8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="194">
   <si>
     <t>Magia en vivo. Landmarks</t>
   </si>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE98EF2-674A-4BDF-A2DD-F44FDB2BF0DC}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3791,8 +3791,8 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>129</v>
+      <c r="A42" s="5">
+        <v>1.7372685185185185E-2</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>190</v>
@@ -3971,8 +3971,8 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>147</v>
+      <c r="A57" s="5">
+        <v>2.3564814814814813E-2</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>190</v>
@@ -5215,5 +5215,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EVENTOS_GEA.xlsx
+++ b/EVENTOS_GEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ABE9E-9DDC-4767-851E-9C31B703B1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE477497-C59E-4CF9-B8B2-3A1B375CE07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8145E164-4147-41CE-9159-390E084BB9C8}"/>
   </bookViews>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE98EF2-674A-4BDF-A2DD-F44FDB2BF0DC}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
